--- a/Gesamtfassung.xlsx
+++ b/Gesamtfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiano\Uni\Bachelor\Bachelor-Arbeit\Processing_Projekte\UmfrageErgebnisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD3CABA-1EA9-4D93-9C80-34C782828DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6E339E-0BC7-4BD3-B09A-BA518954E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E3D1B39-B789-4DAF-B86F-3385AE8336BD}"/>
   </bookViews>
@@ -317,39 +317,18 @@
     <t>Beide Kategorien zählen nur die angeschauten Bilder(auch gestreift)</t>
   </si>
   <si>
-    <t>Fixation Dauer 1</t>
-  </si>
-  <si>
-    <t>Fixation Dauer 4</t>
-  </si>
-  <si>
-    <t>Fixation Dauer 20</t>
-  </si>
-  <si>
-    <t>Fixation Dauer 100</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Verweildauer (100)</t>
-  </si>
-  <si>
     <t>Fixationen pro Bild (100)</t>
   </si>
   <si>
     <t>Anzahl angeschauter Bilder (100)</t>
   </si>
   <si>
-    <t>Durchschnittliche Verweildauer (20)</t>
-  </si>
-  <si>
     <t>Fixationen pro Bild (20)</t>
   </si>
   <si>
     <t>Anzahl angeschauter Bilder (20)</t>
   </si>
   <si>
-    <t>Durchschnittliche Verweildauer (4)</t>
-  </si>
-  <si>
     <t>Fixationen pro Bild (4)</t>
   </si>
   <si>
@@ -375,6 +354,27 @@
   </si>
   <si>
     <t>Durchschnittliche Verweildauer pro Bild(1)</t>
+  </si>
+  <si>
+    <t>Fixation Dauer pro Bild 4</t>
+  </si>
+  <si>
+    <t>Fixation Dauer pro Bild 1</t>
+  </si>
+  <si>
+    <t>Fixation Dauer pro Bild 20</t>
+  </si>
+  <si>
+    <t>Fixation Dauer pro Bild 100</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Verweildauer p.B. (100)</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Verweildauer p. Bild (4)</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Verweildauer p. B. (20)</t>
   </si>
 </sst>
 </file>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B212C895-6FCA-494B-A36B-71F650395BF4}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="76" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41:R44"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="83" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2512,10 +2512,29 @@
       <c r="R25">
         <v>6</v>
       </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>30</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>34</v>
+      </c>
+      <c r="W25">
+        <v>11</v>
+      </c>
+      <c r="X25">
+        <f>SUM(D25:W25)/20</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -2562,10 +2581,29 @@
       <c r="R26">
         <v>54</v>
       </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <v>99</v>
+      </c>
+      <c r="V26">
+        <v>95</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26:X44" si="4">SUM(D26:W26)/20</f>
+        <v>30.35</v>
+      </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D27">
         <v>19</v>
@@ -2612,10 +2650,29 @@
       <c r="R27">
         <v>56</v>
       </c>
+      <c r="S27">
+        <v>18</v>
+      </c>
+      <c r="T27">
+        <v>32</v>
+      </c>
+      <c r="U27">
+        <v>52</v>
+      </c>
+      <c r="V27">
+        <v>16</v>
+      </c>
+      <c r="W27">
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="4"/>
+        <v>37.799999999999997</v>
+      </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <v>88</v>
@@ -2662,10 +2719,29 @@
       <c r="R28">
         <v>83</v>
       </c>
+      <c r="S28">
+        <v>65</v>
+      </c>
+      <c r="T28">
+        <v>53</v>
+      </c>
+      <c r="U28">
+        <v>41</v>
+      </c>
+      <c r="V28">
+        <v>77</v>
+      </c>
+      <c r="W28">
+        <v>74</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="4"/>
+        <v>65.55</v>
+      </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D29">
         <v>13</v>
@@ -2712,10 +2788,29 @@
       <c r="R29">
         <v>4.333333333333333</v>
       </c>
+      <c r="S29">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="T29">
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="U29">
+        <v>2.8</v>
+      </c>
+      <c r="V29">
+        <v>2.8823529411764706</v>
+      </c>
+      <c r="W29">
+        <v>3.1818181818181817</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="4"/>
+        <v>3.4488384262796026</v>
+      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D30">
         <v>6.375</v>
@@ -2762,10 +2857,29 @@
       <c r="R30">
         <v>1.8518518518518519</v>
       </c>
+      <c r="S30">
+        <v>10.75</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>2.9393939393939394</v>
+      </c>
+      <c r="V30">
+        <v>2.2210526315789472</v>
+      </c>
+      <c r="W30">
+        <v>4.5</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="4"/>
+        <v>4.9225980616274452</v>
+      </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>5.5263157894736841</v>
@@ -2812,10 +2926,29 @@
       <c r="R31">
         <v>2.7321428571428572</v>
       </c>
+      <c r="S31">
+        <v>7.9444444444444446</v>
+      </c>
+      <c r="T31">
+        <v>2.8125</v>
+      </c>
+      <c r="U31">
+        <v>4.365384615384615</v>
+      </c>
+      <c r="V31">
+        <v>7.6875</v>
+      </c>
+      <c r="W31">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="4"/>
+        <v>4.7755411445775469</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D32">
         <v>4.1818181818181817</v>
@@ -2862,10 +2995,29 @@
       <c r="R32">
         <v>3.2289156626506026</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S32">
+        <v>9.2615384615384624</v>
+      </c>
+      <c r="T32">
+        <v>2.5849056603773586</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="W32">
+        <v>6.7297297297297298</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="4"/>
+        <v>4.0435283298491553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D33">
         <v>8475</v>
@@ -2912,10 +3064,29 @@
       <c r="R33">
         <v>2104.8333333333335</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S33">
+        <v>3369.5</v>
+      </c>
+      <c r="T33">
+        <v>1697.1666666666667</v>
+      </c>
+      <c r="U33">
+        <v>2010.6</v>
+      </c>
+      <c r="V33">
+        <v>2206.9411764705883</v>
+      </c>
+      <c r="W33">
+        <v>3257.4545454545455</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="4"/>
+        <v>2631.3491273660975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D34">
         <v>3527.75</v>
@@ -2962,10 +3133,29 @@
       <c r="R34">
         <v>600.61111111111109</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S34">
+        <v>3167.75</v>
+      </c>
+      <c r="T34">
+        <v>1839.5</v>
+      </c>
+      <c r="U34">
+        <v>1129</v>
+      </c>
+      <c r="V34">
+        <v>850.53684210526319</v>
+      </c>
+      <c r="W34">
+        <v>2108.75</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="4"/>
+        <v>1808.7942570723426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D35">
         <v>1519.8947368421052</v>
@@ -3012,10 +3202,29 @@
       <c r="R35">
         <v>631.73214285714289</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S35">
+        <v>1205.4444444444443</v>
+      </c>
+      <c r="T35">
+        <v>633.0625</v>
+      </c>
+      <c r="U35">
+        <v>876.82692307692309</v>
+      </c>
+      <c r="V35">
+        <v>2399.4375</v>
+      </c>
+      <c r="W35">
+        <v>979.7</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="4"/>
+        <v>1058.9891955397929</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D36">
         <v>456.76136363636363</v>
@@ -3062,10 +3271,29 @@
       <c r="R36">
         <v>490.68674698795184</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S36">
+        <v>1058.5538461538461</v>
+      </c>
+      <c r="T36">
+        <v>381.41509433962267</v>
+      </c>
+      <c r="U36">
+        <v>316.3170731707317</v>
+      </c>
+      <c r="V36">
+        <v>661.5454545454545</v>
+      </c>
+      <c r="W36">
+        <v>912.82432432432438</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="4"/>
+        <v>516.19344672409386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D37">
         <v>14</v>
@@ -3112,10 +3340,29 @@
       <c r="R37">
         <v>3.6666666666666665</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S37">
+        <v>4.5</v>
+      </c>
+      <c r="T37">
+        <v>2.1</v>
+      </c>
+      <c r="U37">
+        <v>2.8</v>
+      </c>
+      <c r="V37">
+        <v>5</v>
+      </c>
+      <c r="W37">
+        <v>4.2727272727272725</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="4"/>
+        <v>4.4001870490620485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D38">
         <v>5.375</v>
@@ -3162,10 +3409,29 @@
       <c r="R38">
         <v>1.1111111111111112</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S38">
+        <v>4.5</v>
+      </c>
+      <c r="T38">
+        <v>3.5</v>
+      </c>
+      <c r="U38">
+        <v>2.4646464646464645</v>
+      </c>
+      <c r="V38">
+        <v>1.8631578947368421</v>
+      </c>
+      <c r="W38">
+        <v>3.75</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="4"/>
+        <v>3.3077051382979796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D39">
         <v>2.3684210526315788</v>
@@ -3212,10 +3478,29 @@
       <c r="R39">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S39">
+        <v>2.6111111111111112</v>
+      </c>
+      <c r="T39">
+        <v>1.34375</v>
+      </c>
+      <c r="U39">
+        <v>1.5576923076923077</v>
+      </c>
+      <c r="V39">
+        <v>4.4375</v>
+      </c>
+      <c r="W39">
+        <v>1.85</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="4"/>
+        <v>2.021817023017574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D40">
         <v>0.64772727272727271</v>
@@ -3262,10 +3547,29 @@
       <c r="R40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S40">
+        <v>2.0153846153846153</v>
+      </c>
+      <c r="T40">
+        <v>0.81132075471698117</v>
+      </c>
+      <c r="U40">
+        <v>0.34146341463414637</v>
+      </c>
+      <c r="V40">
+        <v>1.2987012987012987</v>
+      </c>
+      <c r="W40">
+        <v>1.5675675675675675</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="4"/>
+        <v>0.94642481418054114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D41">
         <v>6302</v>
@@ -3312,10 +3616,29 @@
       <c r="R41">
         <v>1617.1666666666667</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S41">
+        <v>2527.1666666666665</v>
+      </c>
+      <c r="T41">
+        <v>1564.5</v>
+      </c>
+      <c r="U41">
+        <v>1566.8</v>
+      </c>
+      <c r="V41">
+        <v>1841</v>
+      </c>
+      <c r="W41">
+        <v>2683.4545454545455</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="4"/>
+        <v>2102.4003639971143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D42">
         <v>2807.375</v>
@@ -3362,10 +3685,29 @@
       <c r="R42">
         <v>446.01851851851853</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S42">
+        <v>2081.75</v>
+      </c>
+      <c r="T42">
+        <v>1174.25</v>
+      </c>
+      <c r="U42">
+        <v>869.969696969697</v>
+      </c>
+      <c r="V42">
+        <v>682.70526315789471</v>
+      </c>
+      <c r="W42">
+        <v>1587.5</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="4"/>
+        <v>1315.9348299339417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D43">
         <v>1146.1052631578948</v>
@@ -3412,10 +3754,29 @@
       <c r="R43">
         <v>494.92857142857144</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S43">
+        <v>801.66666666666663</v>
+      </c>
+      <c r="T43">
+        <v>503.75</v>
+      </c>
+      <c r="U43">
+        <v>548.05769230769226</v>
+      </c>
+      <c r="V43">
+        <v>1947.875</v>
+      </c>
+      <c r="W43">
+        <v>687.45</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="4"/>
+        <v>769.89108643453483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D44">
         <v>172.64772727272728</v>
@@ -3462,8 +3823,27 @@
       <c r="R44">
         <v>332.22891566265059</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S44">
+        <v>680.81538461538457</v>
+      </c>
+      <c r="T44">
+        <v>270.52830188679246</v>
+      </c>
+      <c r="U44">
+        <v>118.19512195121951</v>
+      </c>
+      <c r="V44">
+        <v>488.25974025974028</v>
+      </c>
+      <c r="W44">
+        <v>628.08108108108104</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="4"/>
+        <v>322.15191849505948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
